--- a/biology/Botanique/Letharia/Letharia.xlsx
+++ b/biology/Botanique/Letharia/Letharia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Letharia est un genre de lichens de la famille des Parmeliaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (6 février 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (6 février 2023) :
 Letharia arboricola (Jatta) H.Olivier, 1907
 Letharia arenaria (Fr.) Harm., 1907
 Letharia californica (Lév. ex Nyl.) Hue, 1899
@@ -566,11 +580,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Letharia (Th.Fr.) Zahlbr., 1892[1].
-Le basionyme de ce taxon est : Evernia subdivF. Letharia Th.Fr., 1871[1]
-Letharia a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Letharia (Th.Fr.) Zahlbr., 1892.
+Le basionyme de ce taxon est : Evernia subdivF. Letharia Th.Fr., 1871
+Letharia a pour synonymes :
 Chlorea Nyl., 1855
 Evernia subdivF. Letharia Th.Fr., 1871
 Nylanderaria Kuntze, 1891
@@ -603,7 +619,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) A. Zahlbruckner, « O. Kuntze's "Revisio generum plantarum" mit Bezug auf einige Flechtengattungen », Hedwigia, Allemagne, vol. 31,‎ 1892, p. 34-38 (ISSN 0367-5734, lire en ligne).</t>
         </is>
